--- a/biology/Botanique/Serapias_lingua/Serapias_lingua.xlsx
+++ b/biology/Botanique/Serapias_lingua/Serapias_lingua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Serapias lingua, le Sérapias langue, est une espèce de plantes herbacées pérennes de la famille des Orchidacées.
 </t>
@@ -511,13 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante mesurant de 20 à 60 cm. La base de la tige feuillée n'est pas maculée de pourpre.
 Les fleurs claires varient de 2 à 8 par tige. Le labelle atteint environ 25 mm de long et est garni, à sa base, d'une callosité noire, entière, luisante.
 Chez les Serapias (et les Epipactis), le labelle est constitué de 2 parties successives : l'épichile, (partie externe) et l'hypochile, (partie interne).
 L'épichile de Serapias lingua est légèrement concave ou plat et dirigé vers l'avant ; il est moitié moins large que l'hypochile (étalé).
-Ces plantes forment souvent des groupes importants[1].
+Ces plantes forment souvent des groupes importants.
 </t>
         </is>
       </c>
